--- a/food/outputs/quantity.xlsx
+++ b/food/outputs/quantity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>inventory</t>
+          <t>inventory available</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73710</v>
+        <v>74823</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -498,16 +498,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -526,16 +526,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -554,16 +554,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -582,16 +582,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -610,72 +610,72 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Samosa </t>
+          <t>ice cream</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Samosa </t>
+          <t>ice cream</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E9" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -684,26 +684,26 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Samosa </t>
+          <t>ice cream</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -712,26 +712,26 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Samosa </t>
+          <t>ice cream</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -740,54 +740,54 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Samosa </t>
+          <t>ice cream</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jalebi</t>
+          <t xml:space="preserve">Samosa </t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -796,26 +796,26 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jalebi</t>
+          <t xml:space="preserve">Samosa </t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -824,26 +824,26 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jalebi</t>
+          <t xml:space="preserve">Samosa </t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -852,26 +852,26 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jalebi</t>
+          <t xml:space="preserve">Samosa </t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -880,82 +880,82 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>jalebi</t>
+          <t xml:space="preserve">Samosa </t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>aloo Paratha</t>
+          <t xml:space="preserve">Samosa </t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>aloo Paratha</t>
+          <t xml:space="preserve">Samosa </t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -964,26 +964,26 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>aloo Paratha</t>
+          <t xml:space="preserve">Samosa </t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -992,26 +992,26 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>aloo Paratha</t>
+          <t xml:space="preserve">Samosa </t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1020,54 +1020,54 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>aloo Paratha</t>
+          <t xml:space="preserve">Samosa </t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D22" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
         <v>7</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Noodles</t>
+          <t>jalebi</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1076,26 +1076,26 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Noodles</t>
+          <t>jalebi</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E24" t="n">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1104,54 +1104,54 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Noodles</t>
+          <t>jalebi</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Noodles</t>
+          <t>jalebi</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1160,26 +1160,26 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Noodles</t>
+          <t>jalebi</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1188,26 +1188,26 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>jalebi</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D28" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1216,54 +1216,54 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>jalebi</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>6</v>
       </c>
       <c r="C29" t="n">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D29" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>jalebi</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1272,26 +1272,26 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>jalebi</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1300,82 +1300,82 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>jalebi</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E32" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>pastry</t>
+          <t>aloo Paratha</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="E33" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>pastry</t>
+          <t>aloo Paratha</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E34" t="n">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1384,26 +1384,26 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>pastry</t>
+          <t>aloo Paratha</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>-12</v>
+        <v>240</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1412,26 +1412,26 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>pastry</t>
+          <t>aloo Paratha</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1440,26 +1440,26 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>pastry</t>
+          <t>aloo Paratha</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C37" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1468,54 +1468,54 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>dosa</t>
+          <t>aloo Paratha</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="D38" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>108</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>dosa</t>
+          <t>aloo Paratha</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>6</v>
       </c>
       <c r="C39" t="n">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1524,26 +1524,26 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>dosa</t>
+          <t>aloo Paratha</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1552,110 +1552,110 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>dosa</t>
+          <t>aloo Paratha</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>dosa</t>
+          <t>aloo Paratha</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>9</v>
       </c>
       <c r="C42" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E42" t="n">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>biryani</t>
+          <t>Noodles</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>biryani</t>
+          <t>Noodles</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1664,26 +1664,26 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>biryani</t>
+          <t>Noodles</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -1692,51 +1692,51 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>biryani</t>
+          <t>Noodles</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>biryani</t>
+          <t>Noodles</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C47" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1745,29 +1745,29 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>chesse ball</t>
+          <t>Noodles</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E48" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -1776,26 +1776,26 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>chesse ball</t>
+          <t>Noodles</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>6</v>
       </c>
       <c r="C49" t="n">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E49" t="n">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -1804,91 +1804,1491 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>126</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>chesse ball</t>
+          <t>Noodles</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E50" t="n">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>chesse ball</t>
+          <t>Noodles</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>8</v>
       </c>
       <c r="C51" t="n">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E51" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>chesse ball</t>
+          <t>Noodles</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>9</v>
       </c>
       <c r="C52" t="n">
+        <v>74</v>
+      </c>
+      <c r="D52" t="n">
+        <v>60</v>
+      </c>
+      <c r="E52" t="n">
+        <v>12</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>4</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>5</v>
+      </c>
+      <c r="C58" t="n">
+        <v>93</v>
+      </c>
+      <c r="D58" t="n">
+        <v>180</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>6</v>
+      </c>
+      <c r="C59" t="n">
+        <v>83</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" t="n">
+        <v>87</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>7</v>
+      </c>
+      <c r="C60" t="n">
+        <v>63</v>
+      </c>
+      <c r="D60" t="n">
+        <v>70</v>
+      </c>
+      <c r="E60" t="n">
+        <v>14</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>8</v>
+      </c>
+      <c r="C61" t="n">
+        <v>63</v>
+      </c>
+      <c r="D61" t="n">
+        <v>50</v>
+      </c>
+      <c r="E61" t="n">
+        <v>21</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>9</v>
+      </c>
+      <c r="C62" t="n">
+        <v>80</v>
+      </c>
+      <c r="D62" t="n">
+        <v>70</v>
+      </c>
+      <c r="E62" t="n">
+        <v>8</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>pastry</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>pastry</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>pastry</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>pastry</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>pastry</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>4</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>100</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>pastry</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" t="n">
+        <v>106</v>
+      </c>
+      <c r="D68" t="n">
+        <v>80</v>
+      </c>
+      <c r="E68" t="n">
+        <v>100</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>pastry</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>6</v>
+      </c>
+      <c r="C69" t="n">
+        <v>98</v>
+      </c>
+      <c r="D69" t="n">
+        <v>100</v>
+      </c>
+      <c r="E69" t="n">
+        <v>74</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>pastry</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>7</v>
+      </c>
+      <c r="C70" t="n">
+        <v>78</v>
+      </c>
+      <c r="D70" t="n">
+        <v>90</v>
+      </c>
+      <c r="E70" t="n">
+        <v>76</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>pastry</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>8</v>
+      </c>
+      <c r="C71" t="n">
+        <v>76</v>
+      </c>
+      <c r="D71" t="n">
+        <v>80</v>
+      </c>
+      <c r="E71" t="n">
+        <v>88</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>pastry</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>9</v>
+      </c>
+      <c r="C72" t="n">
+        <v>90</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>92</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>100</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>120</v>
+      </c>
+      <c r="E75" t="n">
+        <v>100</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>80</v>
+      </c>
+      <c r="E76" t="n">
+        <v>220</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>90</v>
+      </c>
+      <c r="E77" t="n">
+        <v>300</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>5</v>
+      </c>
+      <c r="C78" t="n">
+        <v>112</v>
+      </c>
+      <c r="D78" t="n">
+        <v>100</v>
+      </c>
+      <c r="E78" t="n">
+        <v>390</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>6</v>
+      </c>
+      <c r="C79" t="n">
+        <v>107</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>378</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>7</v>
+      </c>
+      <c r="C80" t="n">
+        <v>87</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>270</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>8</v>
+      </c>
+      <c r="C81" t="n">
+        <v>82</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>183</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>9</v>
+      </c>
+      <c r="C82" t="n">
+        <v>100</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>100</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>biryani</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>120</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>biryani</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>120</v>
+      </c>
+      <c r="E84" t="n">
+        <v>120</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>biryani</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>100</v>
+      </c>
+      <c r="E85" t="n">
+        <v>240</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>biryani</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>90</v>
+      </c>
+      <c r="E86" t="n">
+        <v>340</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>biryani</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>4</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>430</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>biryani</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>124</v>
+      </c>
+      <c r="D88" t="n">
+        <v>10</v>
+      </c>
+      <c r="E88" t="n">
+        <v>430</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>biryani</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6</v>
+      </c>
+      <c r="C89" t="n">
+        <v>119</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>316</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>biryani</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>7</v>
+      </c>
+      <c r="C90" t="n">
+        <v>99</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>197</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>biryani</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>8</v>
+      </c>
+      <c r="C91" t="n">
+        <v>94</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>97</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>biryani</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>9</v>
+      </c>
+      <c r="C92" t="n">
+        <v>113</v>
+      </c>
+      <c r="D92" t="n">
+        <v>110</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>chesse ball</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>240</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>chesse ball</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>120</v>
+      </c>
+      <c r="E94" t="n">
+        <v>240</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>chesse ball</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>100</v>
+      </c>
+      <c r="E95" t="n">
+        <v>360</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>chesse ball</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>460</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>chesse ball</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>4</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>460</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>chesse ball</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>131</v>
+      </c>
+      <c r="D98" t="n">
+        <v>10</v>
+      </c>
+      <c r="E98" t="n">
+        <v>460</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>chesse ball</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>6</v>
+      </c>
+      <c r="C99" t="n">
+        <v>126</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>339</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>chesse ball</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>7</v>
+      </c>
+      <c r="C100" t="n">
+        <v>106</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>213</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>chesse ball</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>8</v>
+      </c>
+      <c r="C101" t="n">
+        <v>101</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>107</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>chesse ball</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>9</v>
+      </c>
+      <c r="C102" t="n">
         <v>121</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D102" t="n">
         <v>120</v>
       </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>120</v>
+      <c r="E102" t="n">
+        <v>6</v>
+      </c>
+      <c r="F102" t="n">
+        <v>5</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
